--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>银华中小市值量化优选股票C</t>
   </si>
   <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>90.81</t>
   </si>
   <si>
     <t>0.99</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>0.0001</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005515</t>
-  </si>
-  <si>
-    <t>005516</t>
-  </si>
-  <si>
-    <t>银华中小市值量化优选股票A</t>
-  </si>
-  <si>
-    <t>银华中小市值量化优选股票C</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>90.81</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.0013</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,3565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3073</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2489</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4535</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1930</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1843</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0207</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9554</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7349</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6482</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>100.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004390</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>700003</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平安策略先锋混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004391</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安转型创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000822</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东海美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.42</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4007,4 +4008,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4482,4 +4483,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -4507,12 +4507,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
+++ b/数据整理/stocks/A股/创业板/300671-富满电子.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,133 +453,559 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.81</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>89</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4011,560 +4437,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010925</t>
+          <t>005515</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>兴银科技增长1个月滚动持有期混合A</t>
+          <t>银华中小市值量化优选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1793</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>005516</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>银华中小市值量化优选股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0709</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006692</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金信消费升级股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010428</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴银策略智选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010564</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>民生加银瑞利混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010926</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴银科技增长1个月滚动持有期混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006693</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>金信消费升级股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009918</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上银核心成长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008300</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>人保量化锐进混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009919</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>上银核心成长混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008301</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>人保量化锐进混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>89</v>
-      </c>
-      <c r="D3" t="n">
-        <v>35.09</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>